--- a/PERS_LOC_CONVIDA_SINVIDA_Df.xlsx
+++ b/PERS_LOC_CONVIDA_SINVIDA_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160781</v>
+        <v>160784</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12322</v>
+        <v>12323</v>
       </c>
     </row>
   </sheetData>

--- a/PERS_LOC_CONVIDA_SINVIDA_Df.xlsx
+++ b/PERS_LOC_CONVIDA_SINVIDA_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160784</v>
+        <v>160808</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12323</v>
+        <v>12326</v>
       </c>
     </row>
   </sheetData>

--- a/PERS_LOC_CONVIDA_SINVIDA_Df.xlsx
+++ b/PERS_LOC_CONVIDA_SINVIDA_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160808</v>
+        <v>161412</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12326</v>
+        <v>12385</v>
       </c>
     </row>
   </sheetData>

--- a/PERS_LOC_CONVIDA_SINVIDA_Df.xlsx
+++ b/PERS_LOC_CONVIDA_SINVIDA_Df.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161412</v>
+        <v>173061</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12385</v>
+        <v>13931</v>
       </c>
     </row>
   </sheetData>
